--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1323473333333333</v>
+        <v>0.5187906666666667</v>
       </c>
       <c r="H2">
-        <v>0.397042</v>
+        <v>1.556372</v>
       </c>
       <c r="I2">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="J2">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>18.29292735963911</v>
+        <v>63.255491791636</v>
       </c>
       <c r="R2">
-        <v>164.636346236752</v>
+        <v>569.2994261247239</v>
       </c>
       <c r="S2">
-        <v>0.05745743832277458</v>
+        <v>0.120030082456705</v>
       </c>
       <c r="T2">
-        <v>0.06326584481401117</v>
+        <v>0.1272610425286561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1323473333333333</v>
+        <v>0.5187906666666667</v>
       </c>
       <c r="H3">
-        <v>0.397042</v>
+        <v>1.556372</v>
       </c>
       <c r="I3">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="J3">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>19.57606713728667</v>
+        <v>76.73657387025334</v>
       </c>
       <c r="R3">
-        <v>176.18460423558</v>
+        <v>690.62916483228</v>
       </c>
       <c r="S3">
-        <v>0.06148773501527386</v>
+        <v>0.1456110296230348</v>
       </c>
       <c r="T3">
-        <v>0.06770356658764295</v>
+        <v>0.154383060098142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1323473333333333</v>
+        <v>0.5187906666666667</v>
       </c>
       <c r="H4">
-        <v>0.397042</v>
+        <v>1.556372</v>
       </c>
       <c r="I4">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="J4">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>9.829782843753778</v>
+        <v>43.32159871041956</v>
       </c>
       <c r="R4">
-        <v>88.468045593784</v>
+        <v>389.894388393776</v>
       </c>
       <c r="S4">
-        <v>0.03087500050524406</v>
+        <v>0.08220464212809275</v>
       </c>
       <c r="T4">
-        <v>0.03399617260387048</v>
+        <v>0.08715688803837672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1323473333333333</v>
+        <v>0.5187906666666667</v>
       </c>
       <c r="H5">
-        <v>0.397042</v>
+        <v>1.556372</v>
       </c>
       <c r="I5">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="J5">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>22.400592889837</v>
+        <v>47.24546837268334</v>
       </c>
       <c r="R5">
-        <v>134.403557339022</v>
+        <v>283.4728102361</v>
       </c>
       <c r="S5">
-        <v>0.07035947057884039</v>
+        <v>0.08965035768212408</v>
       </c>
       <c r="T5">
-        <v>0.05164810077134381</v>
+        <v>0.06336743671909226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1323473333333333</v>
+        <v>0.5187906666666667</v>
       </c>
       <c r="H6">
-        <v>0.397042</v>
+        <v>1.556372</v>
       </c>
       <c r="I6">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="J6">
-        <v>0.25545453551118</v>
+        <v>0.5259328345599914</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>11.23059153257356</v>
+        <v>46.60588637812</v>
       </c>
       <c r="R6">
-        <v>101.075323793162</v>
+        <v>419.45297740308</v>
       </c>
       <c r="S6">
-        <v>0.03527489108904711</v>
+        <v>0.08843672267003469</v>
       </c>
       <c r="T6">
-        <v>0.03884085073431154</v>
+        <v>0.09376440717572429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3857383333333333</v>
+        <v>0.4676293333333333</v>
       </c>
       <c r="H7">
-        <v>1.157215</v>
+        <v>1.402888</v>
       </c>
       <c r="I7">
-        <v>0.74454546448882</v>
+        <v>0.4740671654400085</v>
       </c>
       <c r="J7">
-        <v>0.7445454644888201</v>
+        <v>0.4740671654400086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>53.31639961133777</v>
+        <v>57.01745493274399</v>
       </c>
       <c r="R7">
-        <v>479.8475965020399</v>
+        <v>513.1570943946959</v>
       </c>
       <c r="S7">
-        <v>0.1674649268558228</v>
+        <v>0.10819313269419</v>
       </c>
       <c r="T7">
-        <v>0.1843940555569585</v>
+        <v>0.1147110006032884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3857383333333333</v>
+        <v>0.4676293333333333</v>
       </c>
       <c r="H8">
-        <v>1.157215</v>
+        <v>1.402888</v>
       </c>
       <c r="I8">
-        <v>0.74454546448882</v>
+        <v>0.4740671654400085</v>
       </c>
       <c r="J8">
-        <v>0.7445454644888201</v>
+        <v>0.4740671654400086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>57.05622713031666</v>
+        <v>69.16907952834664</v>
       </c>
       <c r="R8">
-        <v>513.50604417285</v>
+        <v>622.5217157551199</v>
       </c>
       <c r="S8">
-        <v>0.1792115929188855</v>
+        <v>0.1312513757159599</v>
       </c>
       <c r="T8">
-        <v>0.1973281990538009</v>
+        <v>0.1391583390185394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3857383333333333</v>
+        <v>0.4676293333333333</v>
       </c>
       <c r="H9">
-        <v>1.157215</v>
+        <v>1.402888</v>
       </c>
       <c r="I9">
-        <v>0.74454546448882</v>
+        <v>0.4740671654400085</v>
       </c>
       <c r="J9">
-        <v>0.7445454644888201</v>
+        <v>0.4740671654400086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>28.64979562246444</v>
+        <v>39.04937313936711</v>
       </c>
       <c r="R9">
-        <v>257.84816060218</v>
+        <v>351.4443582543039</v>
       </c>
       <c r="S9">
-        <v>0.08998799550091928</v>
+        <v>0.07409790588997729</v>
       </c>
       <c r="T9">
-        <v>0.09908493529598372</v>
+        <v>0.07856177851206665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3857383333333333</v>
+        <v>0.4676293333333333</v>
       </c>
       <c r="H10">
-        <v>1.157215</v>
+        <v>1.402888</v>
       </c>
       <c r="I10">
-        <v>0.74454546448882</v>
+        <v>0.4740671654400085</v>
       </c>
       <c r="J10">
-        <v>0.7445454644888201</v>
+        <v>0.4740671654400086</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>65.2885641846775</v>
+        <v>42.58628440656667</v>
       </c>
       <c r="R10">
-        <v>391.731385108065</v>
+        <v>255.5177064394</v>
       </c>
       <c r="S10">
-        <v>0.2050690726570306</v>
+        <v>0.08080935084154665</v>
       </c>
       <c r="T10">
-        <v>0.150533084495118</v>
+        <v>0.05711836024033707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3857383333333333</v>
+        <v>0.4676293333333333</v>
       </c>
       <c r="H11">
-        <v>1.157215</v>
+        <v>1.402888</v>
       </c>
       <c r="I11">
-        <v>0.74454546448882</v>
+        <v>0.4740671654400085</v>
       </c>
       <c r="J11">
-        <v>0.7445454644888201</v>
+        <v>0.4740671654400086</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>32.73257987912389</v>
+        <v>42.00977576647999</v>
       </c>
       <c r="R11">
-        <v>294.593218912115</v>
+        <v>378.08798189832</v>
       </c>
       <c r="S11">
-        <v>0.1028118765561619</v>
+        <v>0.07971540029833458</v>
       </c>
       <c r="T11">
-        <v>0.1132051900869589</v>
+        <v>0.084517687065777</v>
       </c>
     </row>
   </sheetData>
